--- a/TEST_Single_Invoice.xlsx
+++ b/TEST_Single_Invoice.xlsx
@@ -512,7 +512,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>INV/2024/001</t>
+          <t>INV-2025-001</t>
         </is>
       </c>
     </row>
@@ -524,7 +524,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2025-11-01</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tata Motors Ltd.</t>
+          <t>ABC Suppliers Private Limited</t>
         </is>
       </c>
     </row>
@@ -560,7 +560,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PAID</t>
+          <t>PARTIAL</t>
         </is>
       </c>
     </row>
@@ -638,19 +638,19 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>Tata Nexon EV Battery Pack</t>
+          <t>Premium Widget Model A</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>8507</t>
+          <t>8471</t>
         </is>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>75000</v>
+        <v>500</v>
       </c>
       <c r="F8" s="6">
         <f>D8*E8</f>
@@ -688,19 +688,19 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Electric Motor Assembly (कनेक्टेड)</t>
+          <t>Service Subscription</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>8501</t>
+          <t>998314</t>
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>75000</v>
+        <v>35000</v>
       </c>
       <c r="F9" s="6">
         <f>D9*E9</f>
@@ -798,7 +798,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INV/2024/001</t>
+          <t>INV-2025-001</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-10-15</t>
+          <t>2025-11-01</t>
         </is>
       </c>
     </row>
@@ -822,7 +822,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tata Motors Ltd.</t>
+          <t>ABC Suppliers Private Limited</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="B8" s="11" t="n">
-        <v>300000</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="9">
@@ -851,7 +851,7 @@
         </is>
       </c>
       <c r="B9" s="11" t="n">
-        <v>27000</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="10">
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="B10" s="11" t="n">
-        <v>27000</v>
+        <v>7650</v>
       </c>
     </row>
     <row r="11">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="B12" s="12" t="n">
-        <v>354000</v>
+        <v>100300</v>
       </c>
     </row>
   </sheetData>
